--- a/data/trans_dic/P16A20-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A20-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.02220802769691877</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06659558623430779</v>
+        <v>0.06659558623430778</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001652663817530997</v>
+        <v>0.001706573060051991</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0010734848264817</v>
+        <v>0.001073875904774169</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01272436251242468</v>
+        <v>0.01310021462273406</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.002058311723161438</v>
+        <v>0.002176343761653844</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02725836309835781</v>
+        <v>0.02801275519759444</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02704237864580269</v>
+        <v>0.02648455684591684</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08310020321991803</v>
+        <v>0.08411817560863571</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002474539942083141</v>
+        <v>0.002761626495259678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01756146293925811</v>
+        <v>0.01715332176517778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01581645106160067</v>
+        <v>0.01592384736236521</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05610454637737834</v>
+        <v>0.05713615053310735</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01000431736558454</v>
+        <v>0.01008977753428819</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01039308627497503</v>
+        <v>0.009523681418655807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.007705629109619237</v>
+        <v>0.006205775325354236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03487185462990565</v>
+        <v>0.03500737100416389</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.009458005641036058</v>
+        <v>0.009687487421487203</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04916797881430589</v>
+        <v>0.04888501087902159</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05228727939526912</v>
+        <v>0.05173400892051803</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1150645797780625</v>
+        <v>0.1165395699482411</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.00825519090385685</v>
+        <v>0.008200773801674282</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02967827583266564</v>
+        <v>0.03091973161192258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.030467675132014</v>
+        <v>0.03126421892004221</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07741522662648322</v>
+        <v>0.0784694803626249</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002351677754696217</v>
+        <v>0.00186570055664559</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.000975878377008053</v>
+        <v>0.0009664922051143954</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002783424978982091</v>
+        <v>0.002935327266747324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007524679026202736</v>
+        <v>0.007278627241405585</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.002667773854253557</v>
+        <v>0.002664383114869585</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02520297734226206</v>
+        <v>0.02606270175585555</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04165463478900387</v>
+        <v>0.04134037626045791</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.07130934091484044</v>
+        <v>0.0705294715426994</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.003135706481964396</v>
+        <v>0.003248922810362587</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01319435431804016</v>
+        <v>0.01303484964590915</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02217072226573854</v>
+        <v>0.02230023144715303</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04040931511135411</v>
+        <v>0.03992297311303281</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009231489163884905</v>
+        <v>0.009247928520433728</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.005432083062450133</v>
+        <v>0.005457790363759551</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009926159409212709</v>
+        <v>0.009980067298372303</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01877790263014312</v>
+        <v>0.01785250835737717</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01108415709170564</v>
+        <v>0.01144659767672619</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0441086654772485</v>
+        <v>0.04392634552585256</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06145027500917624</v>
+        <v>0.06144626011140412</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09248104396005055</v>
+        <v>0.09154102944747357</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.008383143497272325</v>
+        <v>0.008033047003388416</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02217556018022124</v>
+        <v>0.02223751060546879</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0330600470590276</v>
+        <v>0.03315577239438872</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05251507647531919</v>
+        <v>0.05131200007182647</v>
       </c>
     </row>
     <row r="10">
@@ -987,31 +987,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00680954086880287</v>
+        <v>0.006962974915748962</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.001958136503166822</v>
+        <v>0.001956421436905098</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01586605900846703</v>
+        <v>0.01656327755381846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01745576820359227</v>
+        <v>0.01868868707049011</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05737882006630821</v>
+        <v>0.05691711155231096</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.001736941453899208</v>
+        <v>0.001801636436091055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.007685896987322144</v>
+        <v>0.007683232169692767</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01049530846993412</v>
+        <v>0.01025842284222544</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03515450514641953</v>
+        <v>0.0353743636827005</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01124632391390788</v>
+        <v>0.01072706122417431</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01114575481578446</v>
+        <v>0.01271991829105838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02408826410390057</v>
+        <v>0.02425199911920914</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01690525921745271</v>
+        <v>0.01675679394342282</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.05097772449306789</v>
+        <v>0.05228837251796892</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.04600403400367554</v>
+        <v>0.04675900846421426</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08877956132872925</v>
+        <v>0.08953226672011033</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01000392123452166</v>
+        <v>0.01058079748877692</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02471693771258748</v>
+        <v>0.02446610059067557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02558962417713915</v>
+        <v>0.02544921667837523</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05328054638710562</v>
+        <v>0.05444691045921509</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.004225276619746422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01346809506486259</v>
+        <v>0.01346809506486258</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.005552417681264333</v>
@@ -1089,7 +1089,7 @@
         <v>0.04379771502675042</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08314109843805054</v>
+        <v>0.08314109843805052</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.004992683250538844</v>
@@ -1101,7 +1101,7 @@
         <v>0.02445386224751745</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04928993605737685</v>
+        <v>0.04928993605737684</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001415683039911193</v>
+        <v>0.001180801582624155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002425141712357388</v>
+        <v>0.002424250556908912</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009908940901700499</v>
+        <v>0.009947045571171494</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02794635327635376</v>
+        <v>0.02782059254116396</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03694708495976809</v>
+        <v>0.03716652682802516</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07548076084950396</v>
+        <v>0.0761029928328044</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01571990341557705</v>
+        <v>0.01547171856068293</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02089126508518407</v>
+        <v>0.02117765240839156</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0447965326851336</v>
+        <v>0.04490663928453872</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.004731905690946342</v>
+        <v>0.004999754524003177</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007117174061616445</v>
+        <v>0.006773444081156477</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0184043190092478</v>
+        <v>0.01780958637042024</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04112719547436318</v>
+        <v>0.04064765782003909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05088725808153328</v>
+        <v>0.05172289044365039</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09083306786608679</v>
+        <v>0.09092657421391946</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0225807284939153</v>
+        <v>0.02211876153603054</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02870362957348238</v>
+        <v>0.028559530067267</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05343184456409503</v>
+        <v>0.05360520536817315</v>
       </c>
     </row>
     <row r="16">
@@ -1459,40 +1459,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1705</v>
+        <v>1761</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7349</v>
+        <v>7566</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2707</v>
+        <v>2862</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36356</v>
+        <v>37362</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>26898</v>
+        <v>26343</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>68152</v>
+        <v>68987</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5807</v>
+        <v>6481</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>40524</v>
+        <v>39582</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>27663</v>
+        <v>27851</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>78415</v>
+        <v>79857</v>
       </c>
     </row>
     <row r="7">
@@ -1503,40 +1503,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>10322</v>
+        <v>10410</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10121</v>
+        <v>9274</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5813</v>
+        <v>4681</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20140</v>
+        <v>20218</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>12438</v>
+        <v>12740</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>65577</v>
+        <v>65200</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52008</v>
+        <v>51458</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>94366</v>
+        <v>95576</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>19374</v>
+        <v>19246</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>68485</v>
+        <v>71349</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>53288</v>
+        <v>54681</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>108200</v>
+        <v>109673</v>
       </c>
     </row>
     <row r="8">
@@ -1639,40 +1639,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3980</v>
+        <v>3158</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1913</v>
+        <v>1894</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5779</v>
+        <v>6095</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16784</v>
+        <v>16235</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4236</v>
+        <v>4230</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44151</v>
+        <v>45657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>82822</v>
+        <v>82197</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>154765</v>
+        <v>153072</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10285</v>
+        <v>10657</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>48975</v>
+        <v>48383</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>90117</v>
+        <v>90643</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>177837</v>
+        <v>175697</v>
       </c>
     </row>
     <row r="11">
@@ -1683,40 +1683,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15623</v>
+        <v>15651</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10647</v>
+        <v>10697</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20611</v>
+        <v>20722</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41885</v>
+        <v>39821</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17598</v>
+        <v>18173</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77270</v>
+        <v>76951</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>122182</v>
+        <v>122174</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>200714</v>
+        <v>198674</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27497</v>
+        <v>26349</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>82312</v>
+        <v>82542</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>134379</v>
+        <v>134768</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>231113</v>
+        <v>225819</v>
       </c>
     </row>
     <row r="12">
@@ -1826,31 +1826,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4846</v>
+        <v>4955</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7261</v>
+        <v>7580</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9586</v>
+        <v>10263</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>42125</v>
+        <v>41786</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1785</v>
+        <v>1852</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7209</v>
+        <v>7207</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11503</v>
+        <v>11244</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50824</v>
+        <v>51142</v>
       </c>
     </row>
     <row r="15">
@@ -1861,38 +1861,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6201</v>
+        <v>5915</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>6095</v>
+        <v>6956</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>17141</v>
+        <v>17257</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8054</v>
+        <v>7983</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23330</v>
+        <v>23930</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25263</v>
+        <v>25677</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>65178</v>
+        <v>65730</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>10282</v>
+        <v>10875</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>23184</v>
+        <v>22949</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>28047</v>
+        <v>27893</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>77030</v>
+        <v>78716</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4833</v>
+        <v>4031</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8191</v>
+        <v>8188</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34876</v>
+        <v>35011</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>99020</v>
+        <v>98574</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>130501</v>
+        <v>131276</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>281135</v>
+        <v>283453</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>109370</v>
+        <v>107643</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>144353</v>
+        <v>146332</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>324519</v>
+        <v>325317</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>23909</v>
+        <v>23331</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16156</v>
+        <v>17070</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24039</v>
+        <v>22878</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64778</v>
+        <v>62684</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>145722</v>
+        <v>144023</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>179739</v>
+        <v>182690</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>338317</v>
+        <v>338665</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>157103</v>
+        <v>153889</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>198334</v>
+        <v>197338</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>387076</v>
+        <v>388332</v>
       </c>
     </row>
     <row r="20">
